--- a/downloaded_files/CMPS302_Tutorial-35564.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35564.xlsx
@@ -147,7 +147,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1230046</x:t>
@@ -743,7 +743,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.650625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/CMPS302_Tutorial-35564.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35564.xlsx
@@ -174,7 +174,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1220255</x:t>
@@ -201,7 +201,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230210</x:t>
@@ -228,7 +228,7 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1230095</x:t>
@@ -237,7 +237,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230245</x:t>
@@ -264,7 +264,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>1220278</x:t>
@@ -300,7 +300,7 @@
     <x:t>نورهان أيمن منصور أحمد ندا</x:t>
   </x:si>
   <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+    <x:t>NORHAN AYMAN MANSOUR AHMED NADA</x:t>
   </x:si>
   <x:si>
     <x:t>1230126</x:t>
@@ -743,7 +743,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="47.650625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="49.230625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/CMPS302_Tutorial-35564.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35564.xlsx
@@ -147,7 +147,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEK DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1230046</x:t>
